--- a/rewardList.xlsx
+++ b/rewardList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yule Ke\Desktop\Battlefield Cat Hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C94CDD-CDFE-4D05-8188-BDAA95A7EE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A268351D-D283-4AA1-B047-C63B9EE7499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="390" windowWidth="21600" windowHeight="15510" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
+    <workbookView xWindow="5460" yWindow="30" windowWidth="21600" windowHeight="15510" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="12">
+  <futureMetadata name="XLRICHVALUE" count="14">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -125,8 +125,22 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="12">
+  <valueMetadata count="14">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -162,13 +176,19 @@
     </bk>
     <bk>
       <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>Reward Group ID</t>
   </si>
@@ -287,7 +307,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -334,6 +354,14 @@
   </rv>
   <rv s="0">
     <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -362,6 +390,8 @@
   <rel r:id="rId10"/>
   <rel r:id="rId11"/>
   <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
 </richValueRels>
 </file>
 
@@ -684,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C604B4-8E40-4BBE-974F-60177A492261}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,6 +937,12 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
+      <c r="B33" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -922,7 +958,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="e" vm="8">
+      <c r="B36" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -978,7 +1014,7 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="e" vm="9">
+      <c r="B46" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -989,7 +1025,7 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="e" vm="10">
+      <c r="B47" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1000,7 +1036,7 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="e" vm="11">
+      <c r="B48" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1111,6 +1147,12 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
+      <c r="B69" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -1131,7 +1173,7 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" t="e" vm="12">
+      <c r="B73" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="C73" s="1" t="s">

--- a/rewardList.xlsx
+++ b/rewardList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yule Ke\Desktop\Battlefield Cat Hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A268351D-D283-4AA1-B047-C63B9EE7499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CDEA78-4F00-4507-B37C-2E19D2593C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="30" windowWidth="21600" windowHeight="15510" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="14">
+  <futureMetadata name="XLRICHVALUE" count="15">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -139,8 +139,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="14">
+  <valueMetadata count="15">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -182,13 +189,16 @@
     </bk>
     <bk>
       <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>Reward Group ID</t>
   </si>
@@ -307,7 +317,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="15">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -362,6 +372,10 @@
   </rv>
   <rv s="0">
     <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -392,6 +406,7 @@
   <rel r:id="rId12"/>
   <rel r:id="rId13"/>
   <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
 </richValueRels>
 </file>
 
@@ -714,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C604B4-8E40-4BBE-974F-60177A492261}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,82 +1058,88 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1147,7 +1168,7 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" t="e" vm="13">
+      <c r="B69" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1173,7 +1194,7 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" t="e" vm="14">
+      <c r="B73" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
       <c r="C73" s="1" t="s">

--- a/rewardList.xlsx
+++ b/rewardList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yule Ke\Desktop\Battlefield Cat Hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CDEA78-4F00-4507-B37C-2E19D2593C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D5340-4092-4299-BF6F-A95FDF5CF0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="30" windowWidth="21600" windowHeight="15510" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
+    <workbookView xWindow="29445" yWindow="465" windowWidth="21600" windowHeight="15510" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="15">
+  <futureMetadata name="XLRICHVALUE" count="23">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -146,8 +146,64 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="15">
+  <valueMetadata count="23">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -192,13 +248,37 @@
     </bk>
     <bk>
       <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>Reward Group ID</t>
   </si>
@@ -219,6 +299,21 @@
   </si>
   <si>
     <t>Pirate</t>
+  </si>
+  <si>
+    <t>Rank 1</t>
+  </si>
+  <si>
+    <t>Rank 2</t>
+  </si>
+  <si>
+    <t>Rank 3</t>
+  </si>
+  <si>
+    <t>Rank 4-10</t>
+  </si>
+  <si>
+    <t>Out of Rank</t>
   </si>
 </sst>
 </file>
@@ -317,7 +412,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="15">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="23">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -376,6 +471,38 @@
   </rv>
   <rv s="0">
     <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>21</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>22</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -407,6 +534,14 @@
   <rel r:id="rId13"/>
   <rel r:id="rId14"/>
   <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
+  <rel r:id="rId21"/>
+  <rel r:id="rId22"/>
+  <rel r:id="rId23"/>
 </richValueRels>
 </file>
 
@@ -727,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C604B4-8E40-4BBE-974F-60177A492261}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,9 +873,14 @@
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,10 +890,25 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="e" vm="1">
         <v>#VALUE!</v>
@@ -762,93 +917,138 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="e" vm="2">
-        <v>#VALUE!</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B12" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="e" vm="4">
+        <v>15</v>
+      </c>
+      <c r="B17" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -857,30 +1057,42 @@
     </row>
     <row r="18" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B18" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="e" vm="5">
-        <v>#VALUE!</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -888,60 +1100,87 @@
     </row>
     <row r="23" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B23" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B24" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="e" vm="6">
-        <v>#VALUE!</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="e" vm="7">
+        <v>30</v>
+      </c>
+      <c r="B32" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -950,9 +1189,9 @@
     </row>
     <row r="33" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="e" vm="8">
+        <v>31</v>
+      </c>
+      <c r="B33" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -961,20 +1200,26 @@
     </row>
     <row r="34" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="B34" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="e" vm="9">
-        <v>#VALUE!</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -982,65 +1227,95 @@
     </row>
     <row r="37" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B37" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B43" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" t="e" vm="10">
-        <v>#VALUE!</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" t="e" vm="11">
+        <v>45</v>
+      </c>
+      <c r="B47" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1049,9 +1324,9 @@
     </row>
     <row r="48" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" t="e" vm="12">
+        <v>46</v>
+      </c>
+      <c r="B48" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1060,25 +1335,34 @@
     </row>
     <row r="49" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B49" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" t="e" vm="13">
-        <v>#VALUE!</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1086,260 +1370,257 @@
     </row>
     <row r="53" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="B53" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="B62" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B70" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="B71" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="B74" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rewardList.xlsx
+++ b/rewardList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yule Ke\Desktop\Battlefield Cat Hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D5340-4092-4299-BF6F-A95FDF5CF0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCAC159-17B1-4DB8-A2F4-FEA846B9734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="465" windowWidth="21600" windowHeight="15510" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="23">
+  <futureMetadata name="XLRICHVALUE" count="24">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -202,8 +202,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="23">
+  <valueMetadata count="24">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -272,13 +279,16 @@
     </bk>
     <bk>
       <rc t="1" v="22"/>
+    </bk>
+    <bk>
+      <rc t="1" v="23"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="12">
   <si>
     <t>Reward Group ID</t>
   </si>
@@ -412,7 +422,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="23">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="24">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -503,6 +513,10 @@
   </rv>
   <rv s="0">
     <v>22</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>23</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -542,6 +556,7 @@
   <rel r:id="rId21"/>
   <rel r:id="rId22"/>
   <rel r:id="rId23"/>
+  <rel r:id="rId24"/>
 </richValueRels>
 </file>
 
@@ -864,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C604B4-8E40-4BBE-974F-60177A492261}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,6 +1488,12 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
+      <c r="B66" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -1488,6 +1509,12 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
+      <c r="B69" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -1504,7 +1531,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="e" vm="22">
+      <c r="B71" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1525,7 +1552,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="e" vm="23">
+      <c r="B74" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="C74" s="1" t="s">

--- a/rewardList.xlsx
+++ b/rewardList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yule Ke\Desktop\Battlefield Cat Hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCAC159-17B1-4DB8-A2F4-FEA846B9734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12416C69-B5A5-4604-8902-FF5451FCC917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="24">
+  <futureMetadata name="XLRICHVALUE" count="25">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -209,8 +209,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="24">
+  <valueMetadata count="25">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -282,13 +289,16 @@
     </bk>
     <bk>
       <rc t="1" v="23"/>
+    </bk>
+    <bk>
+      <rc t="1" v="24"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
   <si>
     <t>Reward Group ID</t>
   </si>
@@ -422,7 +432,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="24">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="25">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -517,6 +527,10 @@
   </rv>
   <rv s="0">
     <v>23</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>24</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -557,6 +571,7 @@
   <rel r:id="rId22"/>
   <rel r:id="rId23"/>
   <rel r:id="rId24"/>
+  <rel r:id="rId25"/>
 </richValueRels>
 </file>
 
@@ -879,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C604B4-8E40-4BBE-974F-60177A492261}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,6 +1583,12 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
+      <c r="B76" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">

--- a/rewardList.xlsx
+++ b/rewardList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yule Ke\Desktop\Battlefield Cat Hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12416C69-B5A5-4604-8902-FF5451FCC917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318498AA-2E37-47EA-9239-11A9A83B808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="25">
+  <futureMetadata name="XLRICHVALUE" count="26">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -216,8 +216,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="25">
+  <valueMetadata count="26">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -292,6 +299,9 @@
     </bk>
     <bk>
       <rc t="1" v="24"/>
+    </bk>
+    <bk>
+      <rc t="1" v="25"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -432,7 +442,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="25">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="26">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -531,6 +541,10 @@
   </rv>
   <rv s="0">
     <v>24</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>25</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -572,6 +586,7 @@
   <rel r:id="rId23"/>
   <rel r:id="rId24"/>
   <rel r:id="rId25"/>
+  <rel r:id="rId26"/>
 </richValueRels>
 </file>
 
@@ -894,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C604B4-8E40-4BBE-974F-60177A492261}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,6 +1169,9 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1228,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="e" vm="11">
+      <c r="B32" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1221,7 +1239,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="e" vm="12">
+      <c r="B33" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1232,7 +1250,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="e" vm="13">
+      <c r="B34" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1259,7 +1277,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="e" vm="14">
+      <c r="B37" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1310,7 +1328,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="e" vm="15">
+      <c r="B43" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1345,7 +1363,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="e" vm="16">
+      <c r="B47" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1356,7 +1374,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="e" vm="17">
+      <c r="B48" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1367,7 +1385,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="e" vm="18">
+      <c r="B49" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1402,7 +1420,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="e" vm="19">
+      <c r="B53" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1477,7 +1495,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="e" vm="20">
+      <c r="B62" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1503,7 +1521,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="e" vm="21">
+      <c r="B66" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1524,7 +1542,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="e" vm="22">
+      <c r="B69" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1535,7 +1553,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="e" vm="21">
+      <c r="B70" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1546,7 +1564,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="e" vm="23">
+      <c r="B71" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1567,7 +1585,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="e" vm="24">
+      <c r="B74" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1583,7 +1601,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="e" vm="25">
+      <c r="B76" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="C76" s="1" t="s">

--- a/rewardList.xlsx
+++ b/rewardList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yule Ke\Desktop\Battlefield Cat Hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318498AA-2E37-47EA-9239-11A9A83B808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F0B77-68CD-48FD-8380-CDF01FE69B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="26">
+  <futureMetadata name="XLRICHVALUE" count="27">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -223,8 +223,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="26">
+  <valueMetadata count="27">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -302,6 +309,9 @@
     </bk>
     <bk>
       <rc t="1" v="25"/>
+    </bk>
+    <bk>
+      <rc t="1" v="26"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -442,7 +452,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="26">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="27">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -545,6 +555,10 @@
   </rv>
   <rv s="0">
     <v>25</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>26</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -587,6 +601,7 @@
   <rel r:id="rId24"/>
   <rel r:id="rId25"/>
   <rel r:id="rId26"/>
+  <rel r:id="rId27"/>
 </richValueRels>
 </file>
 
@@ -909,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C604B4-8E40-4BBE-974F-60177A492261}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,6 +1354,9 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
       </c>
@@ -1363,7 +1381,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="e" vm="17">
+      <c r="B47" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1374,7 +1392,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="e" vm="18">
+      <c r="B48" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1385,7 +1403,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="e" vm="19">
+      <c r="B49" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1420,7 +1438,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="e" vm="20">
+      <c r="B53" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1495,7 +1513,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="e" vm="21">
+      <c r="B62" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1521,7 +1539,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="e" vm="22">
+      <c r="B66" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1542,7 +1560,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="e" vm="23">
+      <c r="B69" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1553,7 +1571,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="e" vm="22">
+      <c r="B70" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1564,7 +1582,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="e" vm="24">
+      <c r="B71" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1585,7 +1603,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="e" vm="25">
+      <c r="B74" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1601,7 +1619,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="e" vm="26">
+      <c r="B76" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
       <c r="C76" s="1" t="s">

--- a/rewardList.xlsx
+++ b/rewardList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yule Ke\Desktop\Battlefield Cat Hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F0B77-68CD-48FD-8380-CDF01FE69B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF42F6-46D3-4749-915A-A1EB1BADC384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="27">
+  <futureMetadata name="XLRICHVALUE" count="28">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -230,8 +230,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="27">
+  <valueMetadata count="28">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -312,6 +319,9 @@
     </bk>
     <bk>
       <rc t="1" v="26"/>
+    </bk>
+    <bk>
+      <rc t="1" v="27"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -452,7 +462,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="27">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="28">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -559,6 +569,10 @@
   </rv>
   <rv s="0">
     <v>26</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>27</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -602,6 +616,7 @@
   <rel r:id="rId25"/>
   <rel r:id="rId26"/>
   <rel r:id="rId27"/>
+  <rel r:id="rId28"/>
 </richValueRels>
 </file>
 
@@ -924,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C604B4-8E40-4BBE-974F-60177A492261}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,6 +1512,9 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
+      <c r="B60" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1531,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="e" vm="22">
+      <c r="B62" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1539,7 +1557,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="e" vm="23">
+      <c r="B66" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1560,7 +1578,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="e" vm="24">
+      <c r="B69" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1571,7 +1589,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="e" vm="23">
+      <c r="B70" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1582,7 +1600,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="e" vm="25">
+      <c r="B71" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1603,7 +1621,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="e" vm="26">
+      <c r="B74" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1619,7 +1637,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="e" vm="27">
+      <c r="B76" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
       <c r="C76" s="1" t="s">

--- a/rewardList.xlsx
+++ b/rewardList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yule Ke\Desktop\Battlefield Cat Hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF42F6-46D3-4749-915A-A1EB1BADC384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD62150D-B383-4034-BCC6-35EEC6103647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1380676F-C2F2-41B1-A503-B3313135EB49}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="28">
+  <futureMetadata name="XLRICHVALUE" count="29">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -237,8 +237,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="28">
+  <valueMetadata count="29">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -322,6 +329,9 @@
     </bk>
     <bk>
       <rc t="1" v="27"/>
+    </bk>
+    <bk>
+      <rc t="1" v="28"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -462,7 +472,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="28">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="29">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -573,6 +583,10 @@
   </rv>
   <rv s="0">
     <v>27</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>28</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -617,6 +631,7 @@
   <rel r:id="rId26"/>
   <rel r:id="rId27"/>
   <rel r:id="rId28"/>
+  <rel r:id="rId29"/>
 </richValueRels>
 </file>
 
@@ -939,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C604B4-8E40-4BBE-974F-60177A492261}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1257,9 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="B30" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1258,7 +1276,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="e" vm="12">
+      <c r="B32" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1269,7 +1287,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="e" vm="13">
+      <c r="B33" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1280,7 +1298,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="e" vm="14">
+      <c r="B34" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1307,7 +1325,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="e" vm="15">
+      <c r="B37" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1358,7 +1376,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="e" vm="16">
+      <c r="B43" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1369,7 +1387,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="e" vm="17">
+      <c r="B44" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1396,7 +1414,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="e" vm="18">
+      <c r="B47" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1407,7 +1425,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="e" vm="19">
+      <c r="B48" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1418,7 +1436,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="e" vm="20">
+      <c r="B49" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1453,7 +1471,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="e" vm="21">
+      <c r="B53" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1512,7 +1530,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="e" vm="22">
+      <c r="B60" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1531,7 +1549,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="e" vm="23">
+      <c r="B62" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1557,7 +1575,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="e" vm="24">
+      <c r="B66" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1578,7 +1596,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="e" vm="25">
+      <c r="B69" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1589,7 +1607,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="e" vm="24">
+      <c r="B70" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1600,7 +1618,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="e" vm="26">
+      <c r="B71" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1621,7 +1639,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="e" vm="27">
+      <c r="B74" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1637,7 +1655,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="e" vm="28">
+      <c r="B76" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="C76" s="1" t="s">
